--- a/data/test/test.xlsx
+++ b/data/test/test.xlsx
@@ -411,7 +411,7 @@
   <dimension ref="A2:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A12"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -522,25 +522,21 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>78251</v>
-      </c>
+      <c r="B11" s="2"/>
       <c r="C11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
-      <c r="B12" s="1">
-        <v>78252</v>
-      </c>
+      <c r="B12" s="2"/>
       <c r="C12" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A11:B12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
